--- a/JS-SORTING/Analytics.xlsx
+++ b/JS-SORTING/Analytics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HatKid\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding project\HTML-CSS\JS-SORTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F375B67-7D08-4DF8-8459-CE1744EF78BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977430FD-0327-481A-84EC-C37F2729905F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{313507FF-068C-4365-BFA5-6B256ABF0F12}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
   <si>
     <t>Merge Increase</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Swap Increase</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -222,6 +225,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Datos/tiempo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -253,7 +281,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.6772836584932071E-2"/>
+          <c:y val="7.7916080710469654E-2"/>
+          <c:w val="0.84364362040155416"/>
+          <c:h val="0.76416881143681248"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -261,7 +299,15 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Merge Increase</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -277,7 +323,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$8</c:f>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -291,10 +337,10 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -312,13 +358,13 @@
                   <c:v>0.282958984375</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.171142578125</c:v>
+                  <c:v>1.69409179687</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.691162109375</c:v>
+                  <c:v>17.950927734375</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>866.301025390625</c:v>
+                  <c:v>77.123779296875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -326,7 +372,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96BC-4BC2-90AB-A035F02B838B}"/>
+              <c16:uniqueId val="{00000000-7CE9-4963-86D2-BCBA1A064537}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -334,15 +380,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$C$2:$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>Time(ms)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Merge Decrease</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -358,7 +396,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$8</c:f>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -372,34 +410,34 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$C$8</c:f>
+              <c:f>Hoja1!$F$4:$F$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.156982421875</c:v>
+                  <c:v>0.113037109375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.282958984375</c:v>
+                  <c:v>0.350830078125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.171142578125</c:v>
+                  <c:v>2.7568359375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>90.691162109375</c:v>
+                  <c:v>17.14697265625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>866.301025390625</c:v>
+                  <c:v>89.35498046875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,7 +445,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96BC-4BC2-90AB-A035F02B838B}"/>
+              <c16:uniqueId val="{00000001-7CE9-4963-86D2-BCBA1A064537}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -415,7 +453,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Merge Decrease</c:v>
+            <c:v>Random</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -431,7 +469,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$8</c:f>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -445,34 +483,34 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$4:$F$8</c:f>
+              <c:f>Hoja1!$I$4:$I$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.113037109375</c:v>
+                  <c:v>2.197265625E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.350830078125</c:v>
+                  <c:v>1.953125E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7568359375</c:v>
+                  <c:v>0.221923828125</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.738037109375</c:v>
+                  <c:v>1.015869140625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>749.451904296875</c:v>
+                  <c:v>7.323974609375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,7 +518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-96BC-4BC2-90AB-A035F02B838B}"/>
+              <c16:uniqueId val="{00000002-7CE9-4963-86D2-BCBA1A064537}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -488,7 +526,15 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>Random</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swap Incrase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -504,7 +550,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$8</c:f>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -518,34 +564,34 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$I$4:$I$8</c:f>
+              <c:f>Hoja1!$C$13:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.197265625E-3</c:v>
+                  <c:v>4.78515625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.953125E-3</c:v>
+                  <c:v>1.957763671875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7089843000000001E-3</c:v>
+                  <c:v>139.404052734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.197265625E-3</c:v>
+                  <c:v>8612.84716796875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.197265625E-3</c:v>
+                  <c:v>181973.30810546799</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,7 +599,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-96BC-4BC2-90AB-A035F02B838B}"/>
+              <c16:uniqueId val="{00000003-7CE9-4963-86D2-BCBA1A064537}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -561,7 +607,15 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Swap Increase</c:v>
+            <c:strRef>
+              <c:f>Hoja1!$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swap Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -577,7 +631,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$E$4:$E$8</c:f>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -591,34 +645,34 @@
                   <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$13:$C$17</c:f>
+              <c:f>Hoja1!$F$13:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4.78515625E-2</c:v>
+                  <c:v>0.18505859375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.957763671875</c:v>
+                  <c:v>1.7861328125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.404052734375</c:v>
+                  <c:v>183.5927734375</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8612.84716796875</c:v>
+                  <c:v>9250.0920410156195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>98716.373046875</c:v>
+                  <c:v>214608.435302734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -626,11 +680,591 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-96BC-4BC2-90AB-A035F02B838B}"/>
+              <c16:uniqueId val="{00000004-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$13:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.953125E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9296875E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.217041015625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.173095703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.944091796875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$22:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.22265625E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2919921875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.947021484375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.27392578125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17260.560058593699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$22:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.19921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.272216796875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.216796875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>83.45703125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17564.730957031199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$22:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4892578125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.39453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.169921875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.31396484375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.873046875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$31:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4912109375E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.596923828125</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.35302734375</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.114990234375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4823.31298828125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$31:$F$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.19921875E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.333984375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.94189453125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.9228515625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4638.18603515625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7CE9-4963-86D2-BCBA1A064537}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$H$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Random</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$13:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$31:$I$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2939453125E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1015625E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.276123046875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2919921875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.59814453125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-7CE9-4963-86D2-BCBA1A064537}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -639,11 +1273,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="95563432"/>
-        <c:axId val="95564416"/>
+        <c:axId val="474914592"/>
+        <c:axId val="474913512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95563432"/>
+        <c:axId val="474914592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,18 +1304,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>Number</a:t>
+                  <a:t>Datos</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="es-CO" baseline="0"/>
-                  <a:t> of Data</a:t>
-                </a:r>
-              </a:p>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -751,7 +1375,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95564416"/>
+        <c:crossAx val="474913512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +1383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95564416"/>
+        <c:axId val="474913512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -800,13 +1424,1101 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-CO"/>
-                  <a:t>Tiempo</a:t>
+                  <a:t>Tiempo(ms)</a:t>
                 </a:r>
               </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474914592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Iteraciones/datos</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CO"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$46:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8709</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1536362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18674072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$44</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Merge Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$46:$F$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1536489</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18674134</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Random</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$46:$I$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swap Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$55:$C$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>238316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18420762</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449908373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Swap Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$55:$F$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>242569</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18471516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>449808359</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$64:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2317</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>249845</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24960303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500374644</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$62</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Insertion Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$64:$F$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257129</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24874165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2496261731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Increase</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$73:$C$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1063607</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$71</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Selection Decrease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$I$64:$I$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$73:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>557</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94850</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1068886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-88C0-4D55-8331-DC918FD6BAEF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="563887192"/>
+        <c:axId val="563888632"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="563887192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="563888632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="563888632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Numero</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de iteraciones</a:t>
+                </a:r>
                 <a:endParaRPr lang="es-CO"/>
               </a:p>
             </c:rich>
@@ -871,24 +2583,20 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="95563432"/>
+        <c:crossAx val="563887192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln w="25400">
+        <a:ln>
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -920,13 +2628,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1002,6 +2703,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1518,27 +3259,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>735692</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1585</xdr:rowOff>
+      <xdr:rowOff>42267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>74413</xdr:rowOff>
+      <xdr:colOff>14881</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F58DE40-0510-716B-D6A8-FD5C5618361D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26BFE98B-53F0-5D0E-BCA0-257142D18260}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1551,6 +3808,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>122081</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>289892</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{215695D7-46C2-D6A4-5E97-D4E13309D656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1856,10 +4149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2601972B-91E2-423C-8EF4-AC001D8F3EC8}">
-  <dimension ref="B2:I77"/>
+  <dimension ref="B2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="AB77" sqref="AB77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,7 +4244,7 @@
         <v>1000</v>
       </c>
       <c r="C6" s="4">
-        <v>3.171142578125</v>
+        <v>1.69409179687</v>
       </c>
       <c r="E6" s="3">
         <v>1000</v>
@@ -1963,47 +4256,47 @@
         <v>1000</v>
       </c>
       <c r="I6" s="4">
-        <v>1.7089843000000001E-3</v>
+        <v>0.221923828125</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C7" s="4">
-        <v>90.691162109375</v>
+        <v>17.950927734375</v>
       </c>
       <c r="E7" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F7" s="4">
-        <v>72.738037109375</v>
+        <v>17.14697265625</v>
       </c>
       <c r="H7" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I7" s="4">
-        <v>2.197265625E-3</v>
+        <v>1.015869140625</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C8" s="6">
-        <v>866.301025390625</v>
+        <v>77.123779296875</v>
       </c>
       <c r="E8" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F8" s="6">
-        <v>749.451904296875</v>
+        <v>89.35498046875</v>
       </c>
       <c r="H8" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I8" s="6">
-        <v>2.197265625E-3</v>
+        <v>7.323974609375</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -2097,7 +4390,7 @@
         <v>1000</v>
       </c>
       <c r="I15" s="4">
-        <v>1.708984375E-3</v>
+        <v>0.217041015625</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -2114,30 +4407,30 @@
         <v>9250.0920410156195</v>
       </c>
       <c r="H16" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I16" s="4">
-        <v>2.197265625E-3</v>
+        <v>1.173095703125</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="C17" s="6">
-        <v>98716.373046875</v>
+        <v>181973.30810546799</v>
       </c>
       <c r="E17" s="5">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="F17" s="6">
-        <v>101576.481201171</v>
+        <v>214608.435302734</v>
       </c>
       <c r="H17" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I17" s="6">
-        <v>3.173828125E-3</v>
+        <v>4.944091796875</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -2188,7 +4481,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="4">
-        <v>0.1220703125</v>
+        <v>4.19921875E-2</v>
       </c>
       <c r="H22" s="3">
         <v>10</v>
@@ -2234,44 +4527,44 @@
         <v>1000</v>
       </c>
       <c r="I24" s="4">
-        <v>0.217041015625</v>
+        <v>0.169921875</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C25" s="4">
-        <v>20227.988037109299</v>
+        <v>84.27392578125</v>
       </c>
       <c r="E25" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F25" s="4">
-        <v>22652.062255859299</v>
+        <v>83.45703125</v>
       </c>
       <c r="H25" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I25" s="4">
-        <v>1.881103515625</v>
+        <v>1.31396484375</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C26" s="6">
-        <v>110738.299072265</v>
+        <v>17260.560058593699</v>
       </c>
       <c r="E26" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F26" s="6">
-        <v>111036.09716796799</v>
+        <v>17564.730957031199</v>
       </c>
       <c r="H26" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I26" s="6">
         <v>5.873046875</v>
@@ -2371,47 +4664,47 @@
         <v>1000</v>
       </c>
       <c r="I33" s="4">
-        <v>0.200927734375</v>
+        <v>0.276123046875</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C34" s="4">
-        <v>4937.69677734375</v>
+        <v>36.114990234375</v>
       </c>
       <c r="E34" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F34" s="4">
-        <v>4746.65869140625</v>
+        <v>34.9228515625</v>
       </c>
       <c r="H34" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I34" s="4">
-        <v>6.7880859375</v>
+        <v>1.2919921875</v>
       </c>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C35" s="6">
-        <v>322565.31274413998</v>
+        <v>4823.31298828125</v>
       </c>
       <c r="E35" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F35" s="6">
-        <v>314924.44897460903</v>
+        <v>4638.18603515625</v>
       </c>
       <c r="H35" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I35" s="6">
-        <v>47.85400390625</v>
+        <v>3.59814453125</v>
       </c>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
@@ -2508,47 +4801,47 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B49" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C49" s="4">
         <v>1536362</v>
       </c>
       <c r="E49" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F49" s="4">
         <v>1536489</v>
       </c>
       <c r="H49" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I49" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="5">
         <v>100000</v>
-      </c>
-      <c r="I49" s="4">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="5">
-        <v>1000000</v>
       </c>
       <c r="C50" s="6">
         <v>18674072</v>
       </c>
       <c r="E50" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F50" s="6">
         <v>18674134</v>
       </c>
       <c r="H50" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I50" s="6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>12</v>
       </c>
@@ -2561,8 +4854,11 @@
         <v>4</v>
       </c>
       <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>1</v>
       </c>
@@ -2582,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>10</v>
       </c>
@@ -2602,7 +4898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>100</v>
       </c>
@@ -2622,7 +4918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>1000</v>
       </c>
@@ -2642,7 +4938,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B58" s="3">
         <v>10000</v>
       </c>
@@ -2656,33 +4952,33 @@
         <v>18471516</v>
       </c>
       <c r="H58" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I58" s="4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B59" s="5">
         <v>100000</v>
       </c>
-      <c r="I58" s="4">
+      <c r="C59" s="6">
+        <v>449908373</v>
+      </c>
+      <c r="E59" s="5">
         <v>100000</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="5">
-        <v>50000</v>
-      </c>
-      <c r="C59" s="6">
-        <v>201225479</v>
-      </c>
-      <c r="E59" s="5">
-        <v>50000</v>
-      </c>
       <c r="F59" s="6">
-        <v>200255861</v>
+        <v>449808359</v>
       </c>
       <c r="H59" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I59" s="6">
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B62" s="8" t="s">
         <v>7</v>
       </c>
@@ -2696,7 +4992,7 @@
       </c>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B63" s="1" t="s">
         <v>1</v>
       </c>
@@ -2716,7 +5012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B64" s="3">
         <v>10</v>
       </c>
@@ -2778,42 +5074,42 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C67" s="4">
-        <v>2499433175</v>
+        <v>24960303</v>
       </c>
       <c r="E67" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F67" s="4">
-        <v>2499656951</v>
+        <v>24874165</v>
       </c>
       <c r="H67" s="3">
         <v>100000</v>
       </c>
       <c r="I67" s="4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="C68" s="6">
-        <v>9996371283</v>
+        <v>2500374644</v>
       </c>
       <c r="E68" s="5">
-        <v>200000</v>
+        <v>100000</v>
       </c>
       <c r="F68" s="6">
-        <v>9996376562</v>
+        <v>2496261731</v>
       </c>
       <c r="H68" s="5">
         <v>1000000</v>
       </c>
       <c r="I68" s="6">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
@@ -2912,42 +5208,42 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C76" s="4">
-        <v>1060180</v>
+        <v>94428</v>
       </c>
       <c r="E76" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="F76" s="4">
-        <v>1066485</v>
+        <v>94850</v>
       </c>
       <c r="H76" s="3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="I76" s="4">
-        <v>100000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C77" s="6">
-        <v>10782170</v>
+        <v>1063607</v>
       </c>
       <c r="E77" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="F77" s="6">
-        <v>10786553</v>
+        <v>1068886</v>
       </c>
       <c r="H77" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="I77" s="6">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
